--- a/GLOBAL/Causas Cambio Climático/Naturales/Radiación TSI.xlsx
+++ b/GLOBAL/Causas Cambio Climático/Naturales/Radiación TSI.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Radiación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Causas Cambio Climático\Naturales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{423D4F1A-D999-46DA-9AF1-5ABFC0544525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD3C86-8B1E-4047-94D2-FB52DEA63D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
+    <sheet name="Radiación TSI" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,9 +647,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>TSI</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -664,7 +661,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja2!$A$2:$A$410</c:f>
+              <c:f>'Radiación TSI'!$A$2:$A$410</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="409"/>
@@ -1900,7 +1897,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$2:$B$410</c:f>
+              <c:f>'Radiación TSI'!$B$2:$B$410</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="409"/>
@@ -3965,11 +3962,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Radiacion_TSI_MUNDO" displayName="Radiacion_TSI_MUNDO" ref="A1:B410" totalsRowShown="0">
-  <autoFilter ref="A1:B410"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Radiacion_TSI_MUNDO" displayName="Radiacion_TSI_MUNDO" ref="A1:B410" totalsRowShown="0">
+  <autoFilter ref="A1:B410" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Año"/>
-    <tableColumn id="2" name="TSI [W/m^2]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TSI [W/m^2]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4271,11 +4268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
